--- a/results/messageix_final_working_model.xlsx
+++ b/results/messageix_final_working_model.xlsx
@@ -472,12 +472,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total Cost</t>
+          <t>Total Cost (Million USD)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optimization Completed</t>
+          <t>676.79</t>
         </is>
       </c>
     </row>
